--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.81005260650898</v>
+        <v>82.55376966964977</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.57124084326276</v>
+        <v>112.9537096772467</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.49988031368378</v>
+        <v>102.1735661572065</v>
       </c>
       <c r="AD2" t="n">
-        <v>61810.05260650897</v>
+        <v>82553.76966964977</v>
       </c>
       <c r="AE2" t="n">
-        <v>84571.24084326276</v>
+        <v>112953.7096772467</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.853259792741038e-06</v>
+        <v>8.204676479942509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.175347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>76499.88031368378</v>
+        <v>102173.5661572065</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.9799849150118</v>
+        <v>69.80895332417316</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.01657620512641</v>
+        <v>95.51568969175959</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.62060823047906</v>
+        <v>86.39980632471401</v>
       </c>
       <c r="AD3" t="n">
-        <v>48979.9849150118</v>
+        <v>69808.95332417316</v>
       </c>
       <c r="AE3" t="n">
-        <v>67016.57620512642</v>
+        <v>95515.68969175959</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.547226179007096e-06</v>
+        <v>9.377861087901046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.654513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>60620.60823047906</v>
+        <v>86399.80632471401</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.29635051388588</v>
+        <v>68.95472672245505</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.08119745768522</v>
+        <v>94.34689916947153</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.77450071788103</v>
+        <v>85.34256352946495</v>
       </c>
       <c r="AD4" t="n">
-        <v>48296.35051388588</v>
+        <v>68954.72672245505</v>
       </c>
       <c r="AE4" t="n">
-        <v>66081.19745768522</v>
+        <v>94346.89916947152</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.785169515645494e-06</v>
+        <v>9.780116104332694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.498263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>59774.50071788103</v>
+        <v>85342.56352946495</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.89692578448519</v>
+        <v>68.55530199305436</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.53468692154406</v>
+        <v>93.80038863333037</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.28014838027665</v>
+        <v>84.84821119186059</v>
       </c>
       <c r="AD5" t="n">
-        <v>47896.92578448519</v>
+        <v>68555.30199305435</v>
       </c>
       <c r="AE5" t="n">
-        <v>65534.68692154407</v>
+        <v>93800.38863333037</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.865114181918449e-06</v>
+        <v>9.915266529217763e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>59280.14838027665</v>
+        <v>84848.21119186058</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.93127982485028</v>
+        <v>68.11241551257027</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.58169163516486</v>
+        <v>93.19441181195978</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.32266703000103</v>
+        <v>84.30006794782759</v>
       </c>
       <c r="AD2" t="n">
-        <v>47931.27982485028</v>
+        <v>68112.41551257027</v>
       </c>
       <c r="AE2" t="n">
-        <v>65581.69163516485</v>
+        <v>93194.41181195978</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.609295997258154e-06</v>
+        <v>9.714128366362587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>59322.66703000103</v>
+        <v>84300.06794782759</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.42146841087257</v>
+        <v>66.43201189800035</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.51590105038298</v>
+        <v>90.89520945233104</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.45403259927478</v>
+        <v>82.2202982344503</v>
       </c>
       <c r="AD3" t="n">
-        <v>46421.46841087257</v>
+        <v>66432.01189800036</v>
       </c>
       <c r="AE3" t="n">
-        <v>63515.90105038298</v>
+        <v>90895.20945233105</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.226431320942841e-06</v>
+        <v>1.07828777703199e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.368055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>57454.03259927477</v>
+        <v>82220.2982344503</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.03524479477096</v>
+        <v>66.04578828189874</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.98745285984963</v>
+        <v>90.36676126179771</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.97601876236406</v>
+        <v>81.74228439753959</v>
       </c>
       <c r="AD4" t="n">
-        <v>46035.24479477096</v>
+        <v>66045.78828189874</v>
       </c>
       <c r="AE4" t="n">
-        <v>62987.45285984963</v>
+        <v>90366.7612617977</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.304110495224618e-06</v>
+        <v>1.091740186580979e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.324652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>56976.01876236407</v>
+        <v>81742.2843975396</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.52843985627019</v>
+        <v>49.67383022713086</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.13860234783601</v>
+        <v>67.96592597146207</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.02151468523852</v>
+        <v>61.4793533875367</v>
       </c>
       <c r="AD2" t="n">
-        <v>31528.43985627019</v>
+        <v>49673.83022713086</v>
       </c>
       <c r="AE2" t="n">
-        <v>43138.60234783601</v>
+        <v>67965.92597146207</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.852190460821326e-06</v>
+        <v>1.485803406253703e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.977430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>39021.51468523852</v>
+        <v>61479.35338753671</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.29655634339779</v>
+        <v>52.79327663092116</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.24025849827547</v>
+        <v>72.23409016138841</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.58645137143704</v>
+        <v>65.3401699775839</v>
       </c>
       <c r="AD2" t="n">
-        <v>43296.55634339779</v>
+        <v>52793.27663092116</v>
       </c>
       <c r="AE2" t="n">
-        <v>59240.25849827546</v>
+        <v>72234.09016138841</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.945736852653959e-06</v>
+        <v>1.265362410666209e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.220486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>53586.45137143703</v>
+        <v>65340.16997758389</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.65846752699517</v>
+        <v>52.15518781451854</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.36719722918203</v>
+        <v>71.36102889229497</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.79671384451641</v>
+        <v>64.55043245066327</v>
       </c>
       <c r="AD3" t="n">
-        <v>42658.46752699517</v>
+        <v>52155.18781451854</v>
       </c>
       <c r="AE3" t="n">
-        <v>58367.19722918203</v>
+        <v>71361.02889229497</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.318231734131065e-06</v>
+        <v>1.333222888421941e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>52796.71384451641</v>
+        <v>64550.43245066327</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.32552433058377</v>
+        <v>47.84548341014817</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.49272025671225</v>
+        <v>65.46430119549881</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.53271327087669</v>
+        <v>59.21648016913815</v>
       </c>
       <c r="AD2" t="n">
-        <v>30325.52433058377</v>
+        <v>47845.48341014817</v>
       </c>
       <c r="AE2" t="n">
-        <v>41492.72025671224</v>
+        <v>65464.30119549881</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.202312769218638e-06</v>
+        <v>1.607389023865831e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.960069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>37532.71327087669</v>
+        <v>59216.48016913815</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.81008364072573</v>
+        <v>69.16149662075762</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.78410978613314</v>
+        <v>94.62981086637305</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.41032808024575</v>
+        <v>85.59847453108335</v>
       </c>
       <c r="AD2" t="n">
-        <v>48810.08364072573</v>
+        <v>69161.49662075762</v>
       </c>
       <c r="AE2" t="n">
-        <v>66784.10978613314</v>
+        <v>94629.81086637305</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.384485546091446e-06</v>
+        <v>9.263906192971254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60410.32808024574</v>
+        <v>85598.47453108335</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.16939344778532</v>
+        <v>67.35021422722502</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.53924508201037</v>
+        <v>92.15153438740343</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.37971011279634</v>
+        <v>83.35672128098291</v>
       </c>
       <c r="AD3" t="n">
-        <v>47169.39344778533</v>
+        <v>67350.21422722502</v>
       </c>
       <c r="AE3" t="n">
-        <v>64539.24508201037</v>
+        <v>92151.53438740343</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.004907194315614e-06</v>
+        <v>1.033132997933639e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>58379.71011279634</v>
+        <v>83356.72128098291</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.57552582117588</v>
+        <v>66.75634660061559</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.72668919569312</v>
+        <v>91.33897850108619</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.64470341983961</v>
+        <v>82.62171458802617</v>
       </c>
       <c r="AD4" t="n">
-        <v>46575.52582117588</v>
+        <v>66756.34660061558</v>
       </c>
       <c r="AE4" t="n">
-        <v>63726.68919569312</v>
+        <v>91338.97850108618</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.162124389858205e-06</v>
+        <v>1.060181920973015e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.368055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>57644.70341983961</v>
+        <v>82621.71458802617</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.4157313440978</v>
+        <v>66.59655212353749</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.50805134252022</v>
+        <v>91.12034064791328</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.4469320565133</v>
+        <v>82.42394322469987</v>
       </c>
       <c r="AD5" t="n">
-        <v>46415.7313440978</v>
+        <v>66596.55212353749</v>
       </c>
       <c r="AE5" t="n">
-        <v>63508.05134252022</v>
+        <v>91120.34064791328</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.260642379819979e-06</v>
+        <v>1.07713175600393e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.315972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>57446.93205651329</v>
+        <v>82423.94322469986</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.387230883484</v>
+        <v>47.00479587495909</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.52310281972903</v>
+        <v>64.31403542133721</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.51037160335115</v>
+        <v>58.17599414605402</v>
       </c>
       <c r="AD2" t="n">
-        <v>38387.230883484</v>
+        <v>47004.79587495909</v>
       </c>
       <c r="AE2" t="n">
-        <v>52523.10281972903</v>
+        <v>64314.0354213372</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.283498287277478e-06</v>
+        <v>1.660560079618991e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.003472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>47510.37160335114</v>
+        <v>58175.99414605401</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.60073989919138</v>
+        <v>65.0586511872288</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.39294409271483</v>
+        <v>89.01611673945592</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.43824907756613</v>
+        <v>80.52054349276821</v>
       </c>
       <c r="AD2" t="n">
-        <v>45600.73989919138</v>
+        <v>65058.65118722881</v>
       </c>
       <c r="AE2" t="n">
-        <v>62392.94409271483</v>
+        <v>89016.11673945593</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.241254061533169e-06</v>
+        <v>1.105372471121587e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>56438.24907756614</v>
+        <v>80520.54349276821</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.54618261670849</v>
+        <v>54.36052386957436</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.95005229503865</v>
+        <v>74.378466975381</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.13306484794835</v>
+        <v>67.27989047810148</v>
       </c>
       <c r="AD3" t="n">
-        <v>44546.18261670849</v>
+        <v>54360.52386957436</v>
       </c>
       <c r="AE3" t="n">
-        <v>60950.05229503865</v>
+        <v>74378.466975381</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.703244837360869e-06</v>
+        <v>1.187194470430904e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.220486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>55133.06484794835</v>
+        <v>67279.89047810147</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.42175382365598</v>
+        <v>54.23609507652183</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.77980333097335</v>
+        <v>74.20821801131569</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.97906420606746</v>
+        <v>67.12588983622059</v>
       </c>
       <c r="AD4" t="n">
-        <v>44421.75382365598</v>
+        <v>54236.09507652184</v>
       </c>
       <c r="AE4" t="n">
-        <v>60779.80333097335</v>
+        <v>74208.21801131569</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.799946945365299e-06</v>
+        <v>1.204321132321875e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.177083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>54979.06420606747</v>
+        <v>67125.88983622059</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.06428815198957</v>
+        <v>67.06867153964058</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.3954353793843</v>
+        <v>91.76631526146383</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.24962540635067</v>
+        <v>83.00826692776442</v>
       </c>
       <c r="AD2" t="n">
-        <v>47064.28815198957</v>
+        <v>67068.67153964058</v>
       </c>
       <c r="AE2" t="n">
-        <v>64395.4353793843</v>
+        <v>91766.31526146382</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841640123490502e-06</v>
+        <v>1.018731028799971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58249.62540635067</v>
+        <v>83008.26692776443</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.79932596182224</v>
+        <v>65.63311714888106</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.664658304605</v>
+        <v>89.80212641183768</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.68403126642688</v>
+        <v>81.23153750518959</v>
       </c>
       <c r="AD3" t="n">
-        <v>45799.32596182224</v>
+        <v>65633.11714888105</v>
       </c>
       <c r="AE3" t="n">
-        <v>62664.658304605</v>
+        <v>89802.12641183767</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.398310652055831e-06</v>
+        <v>1.115809508178999e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>56684.03126642688</v>
+        <v>81231.5375051896</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.50221954877416</v>
+        <v>55.50450075115072</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.25814420286294</v>
+        <v>75.9437066134511</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.31631430000883</v>
+        <v>68.6957458419423</v>
       </c>
       <c r="AD4" t="n">
-        <v>45502.21954877416</v>
+        <v>55504.50075115071</v>
       </c>
       <c r="AE4" t="n">
-        <v>62258.14420286295</v>
+        <v>75943.7066134511</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.482455971695342e-06</v>
+        <v>1.130483717173894e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>56316.31430000883</v>
+        <v>68695.74584194229</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.70316494821839</v>
+        <v>81.29276424989625</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.05674831675324</v>
+        <v>111.2283464303079</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.12992882830028</v>
+        <v>100.6128691569925</v>
       </c>
       <c r="AD2" t="n">
-        <v>60703.16494821839</v>
+        <v>81292.76424989625</v>
       </c>
       <c r="AE2" t="n">
-        <v>83056.74831675325</v>
+        <v>111228.3464303079</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.061929816685003e-06</v>
+        <v>8.604945201986696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75129.92882830028</v>
+        <v>100612.8691569925</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.22197159595721</v>
+        <v>68.89682224365563</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.97942894080899</v>
+        <v>94.26767170701289</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.68244484542242</v>
+        <v>85.2708974248269</v>
       </c>
       <c r="AD3" t="n">
-        <v>48221.97159595721</v>
+        <v>68896.82224365564</v>
       </c>
       <c r="AE3" t="n">
-        <v>65979.42894080898</v>
+        <v>94267.67170701289</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.762384919186254e-06</v>
+        <v>9.795672452611144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>59682.44484542242</v>
+        <v>85270.89742482689</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.74649428235062</v>
+        <v>68.25075272945686</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.32885990375416</v>
+        <v>93.38369089511122</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.09396520418453</v>
+        <v>84.47128250093797</v>
       </c>
       <c r="AD4" t="n">
-        <v>47746.49428235063</v>
+        <v>68250.75272945686</v>
       </c>
       <c r="AE4" t="n">
-        <v>65328.85990375416</v>
+        <v>93383.69089511121</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.907882697355202e-06</v>
+        <v>1.00430090324325e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>59093.96520418453</v>
+        <v>84471.28250093797</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.43560549891935</v>
+        <v>67.93986394602558</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.90348815481856</v>
+        <v>92.95831914617563</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.7091903379542</v>
+        <v>84.08650763470766</v>
       </c>
       <c r="AD5" t="n">
-        <v>47435.60549891935</v>
+        <v>67939.86394602558</v>
       </c>
       <c r="AE5" t="n">
-        <v>64903.48815481857</v>
+        <v>92958.31914617562</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.981290373274852e-06</v>
+        <v>1.016779721630097e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>58709.19033795421</v>
+        <v>84086.50763470765</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.86473653817489</v>
+        <v>53.47297240787979</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.01766770711021</v>
+        <v>73.1640799094841</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.28966573648152</v>
+        <v>66.18140280937045</v>
       </c>
       <c r="AD2" t="n">
-        <v>43864.73653817489</v>
+        <v>53472.9724078798</v>
       </c>
       <c r="AE2" t="n">
-        <v>60017.66770711022</v>
+        <v>73164.07990948411</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.825590944935055e-06</v>
+        <v>1.230815568116642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.237847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>54289.66573648152</v>
+        <v>66181.40280937045</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.32521942396849</v>
+        <v>52.9334552936734</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.27947658963816</v>
+        <v>72.42588879201206</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.62192654320302</v>
+        <v>65.51366361609196</v>
       </c>
       <c r="AD3" t="n">
-        <v>43325.21942396849</v>
+        <v>52933.4552936734</v>
       </c>
       <c r="AE3" t="n">
-        <v>59279.47658963817</v>
+        <v>72425.88879201206</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.10008479459786e-06</v>
+        <v>1.280313304831725e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.107638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>53621.92654320302</v>
+        <v>65513.66361609196</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.49963289860835</v>
+        <v>50.75144290663888</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.78162856628765</v>
+        <v>69.44036318048036</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.3624696295493</v>
+        <v>62.81307237871237</v>
       </c>
       <c r="AD2" t="n">
-        <v>41499.63289860835</v>
+        <v>50751.44290663888</v>
       </c>
       <c r="AE2" t="n">
-        <v>56781.62856628765</v>
+        <v>69440.36318048036</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.602110966318051e-06</v>
+        <v>1.418310910358647e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.029513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>51362.4696295493</v>
+        <v>62813.07237871237</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.52220867953593</v>
+        <v>50.77401868756647</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.81251774572579</v>
+        <v>69.47125235991862</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.39041078905518</v>
+        <v>62.8410135382183</v>
       </c>
       <c r="AD3" t="n">
-        <v>41522.20867953593</v>
+        <v>50774.01868756647</v>
       </c>
       <c r="AE3" t="n">
-        <v>56812.51774572579</v>
+        <v>69471.25235991862</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.573157210074174e-06</v>
+        <v>1.412909064929331e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.038194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>51390.41078905518</v>
+        <v>62841.0135382183</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.99063744811659</v>
+        <v>48.83894188653186</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.4027573668361</v>
+        <v>66.82359491118102</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.35589771645813</v>
+        <v>60.4460448003768</v>
       </c>
       <c r="AD2" t="n">
-        <v>30990.63744811659</v>
+        <v>48838.94188653186</v>
       </c>
       <c r="AE2" t="n">
-        <v>42402.7573668361</v>
+        <v>66823.59491118102</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.980986590063182e-06</v>
+        <v>1.534773317646771e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.986111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>38355.89771645813</v>
+        <v>60446.0448003768</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.31125675917241</v>
+        <v>45.71341301782869</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.05090755422485</v>
+        <v>62.54710842442149</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.17868058774327</v>
+        <v>56.57770018182577</v>
       </c>
       <c r="AD2" t="n">
-        <v>37311.25675917241</v>
+        <v>45713.41301782869</v>
       </c>
       <c r="AE2" t="n">
-        <v>51050.90755422485</v>
+        <v>62547.10842442149</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43511993253445e-06</v>
+        <v>1.73982726484589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.029513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>46178.68058774326</v>
+        <v>56577.70018182577</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.4228998273707</v>
+        <v>66.24335176774521</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.51785957758536</v>
+        <v>90.63707633901853</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.45580420738977</v>
+        <v>81.98680098318016</v>
       </c>
       <c r="AD2" t="n">
-        <v>46422.8998273707</v>
+        <v>66243.3517677452</v>
       </c>
       <c r="AE2" t="n">
-        <v>63517.85957758536</v>
+        <v>90637.07633901853</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.994518679358845e-06</v>
+        <v>1.053213284920503e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>57455.80420738977</v>
+        <v>81986.80098318016</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.11778268071879</v>
+        <v>55.02809815945709</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.73214071983222</v>
+        <v>75.2918715700972</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.84051185114787</v>
+        <v>68.10612102026964</v>
       </c>
       <c r="AD3" t="n">
-        <v>45117.78268071879</v>
+        <v>55028.09815945709</v>
       </c>
       <c r="AE3" t="n">
-        <v>61732.14071983223</v>
+        <v>75291.8715700972</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.573388931557146e-06</v>
+        <v>1.154918504717357e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>55840.51185114787</v>
+        <v>68106.12102026964</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.0037006752535</v>
+        <v>54.9140161539918</v>
       </c>
       <c r="AB4" t="n">
-        <v>61.57604868701183</v>
+        <v>75.13577953727679</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.69931702286326</v>
+        <v>67.96492619198503</v>
       </c>
       <c r="AD4" t="n">
-        <v>45003.7006752535</v>
+        <v>54914.0161539918</v>
       </c>
       <c r="AE4" t="n">
-        <v>61576.04868701183</v>
+        <v>75135.77953727679</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.625975452149822e-06</v>
+        <v>1.164157748943363e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>55699.31702286326</v>
+        <v>67964.92619198503</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.40507197742004</v>
+        <v>69.92088552225088</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.59819907743075</v>
+        <v>95.66884026326949</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.14672183216368</v>
+        <v>86.53834042062724</v>
       </c>
       <c r="AD2" t="n">
-        <v>49405.07197742004</v>
+        <v>69920.88552225089</v>
       </c>
       <c r="AE2" t="n">
-        <v>67598.19907743075</v>
+        <v>95668.84026326949</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.261892205925652e-06</v>
+        <v>8.997249274260459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>61146.72183216368</v>
+        <v>86538.34042062724</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.78207640373591</v>
+        <v>68.29788994856675</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.3775449320059</v>
+        <v>93.44818611784466</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.1380038016698</v>
+        <v>84.52962239013338</v>
       </c>
       <c r="AD3" t="n">
-        <v>47782.07640373591</v>
+        <v>68297.88994856675</v>
       </c>
       <c r="AE3" t="n">
-        <v>65377.54493200591</v>
+        <v>93448.18611784466</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.859732058355911e-06</v>
+        <v>1.001948879721091e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>59138.0038016698</v>
+        <v>84529.62239013339</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.21132666190543</v>
+        <v>67.55654800614407</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.59661995553233</v>
+        <v>92.43384936652423</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.43160920891552</v>
+        <v>83.61209251472808</v>
       </c>
       <c r="AD4" t="n">
-        <v>47211.32666190543</v>
+        <v>67556.54800614408</v>
       </c>
       <c r="AE4" t="n">
-        <v>64596.61995553233</v>
+        <v>92433.84936652423</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.018728990537959e-06</v>
+        <v>1.029135583224321e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.420138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>58431.60920891553</v>
+        <v>83612.09251472808</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.93717417668233</v>
+        <v>67.28239552092097</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.22151243049622</v>
+        <v>92.05874184148813</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.09230141960202</v>
+        <v>83.27278472541455</v>
       </c>
       <c r="AD5" t="n">
-        <v>46937.17417668233</v>
+        <v>67282.39552092097</v>
       </c>
       <c r="AE5" t="n">
-        <v>64221.51243049622</v>
+        <v>92058.74184148812</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.117016709133933e-06</v>
+        <v>1.045941687762351e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.368055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>58092.30141960202</v>
+        <v>83272.78472541456</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.14732135787011</v>
+        <v>44.28533933317085</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.45835978896491</v>
+        <v>60.59315500690911</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.73812334604015</v>
+        <v>54.81022933608929</v>
       </c>
       <c r="AD2" t="n">
-        <v>36147.32135787011</v>
+        <v>44285.33933317084</v>
       </c>
       <c r="AE2" t="n">
-        <v>49458.3597889649</v>
+        <v>60593.15500690911</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.153749039209794e-06</v>
+        <v>1.747723973005886e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.246527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>44738.12334604016</v>
+        <v>54810.22933608929</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.48569933856866</v>
+        <v>51.86403282219898</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.13080817178246</v>
+        <v>70.96265778695181</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.58288542698085</v>
+        <v>64.19008132449659</v>
       </c>
       <c r="AD2" t="n">
-        <v>42485.69933856867</v>
+        <v>51864.03282219898</v>
       </c>
       <c r="AE2" t="n">
-        <v>58130.80817178246</v>
+        <v>70962.65778695181</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.22265625848812e-06</v>
+        <v>1.330725688051123e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.142361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>52582.88542698085</v>
+        <v>64190.08132449658</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.12036585195079</v>
+        <v>51.49869933558458</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.63094277785184</v>
+        <v>70.46279239319033</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.13072648478432</v>
+        <v>63.73792238235004</v>
       </c>
       <c r="AD3" t="n">
-        <v>42120.36585195079</v>
+        <v>51498.69933558458</v>
       </c>
       <c r="AE3" t="n">
-        <v>57630.94277785184</v>
+        <v>70462.79239319032</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.445031318777347e-06</v>
+        <v>1.371696792658382e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>52130.72648478432</v>
+        <v>63737.92238235004</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.71717912105102</v>
+        <v>63.97411540226333</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.18401725611335</v>
+        <v>87.53220703212486</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.34470052151003</v>
+        <v>79.17825604522397</v>
       </c>
       <c r="AD2" t="n">
-        <v>44717.17912105103</v>
+        <v>63974.11540226333</v>
       </c>
       <c r="AE2" t="n">
-        <v>61184.01725611335</v>
+        <v>87532.20703212486</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.533469048288063e-06</v>
+        <v>1.167156565342929e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.342013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>55344.70052151004</v>
+        <v>79178.25604522397</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.90217818988108</v>
+        <v>53.61603193933438</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.06889702678371</v>
+        <v>73.35982027176128</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.33600580178618</v>
+        <v>66.35846198619525</v>
       </c>
       <c r="AD3" t="n">
-        <v>43902.17818988108</v>
+        <v>53616.03193933437</v>
       </c>
       <c r="AE3" t="n">
-        <v>60068.89702678371</v>
+        <v>73359.82027176127</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.898250755918626e-06</v>
+        <v>1.232322155296949e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.168402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>54336.00580178618</v>
+        <v>66358.46198619525</v>
       </c>
     </row>
   </sheetData>
